--- a/detection field test data.xlsx
+++ b/detection field test data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shosh\OneDrive\2 PhD\Projects\Detection dog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3a69dc1a79d235a/2 PhD/GIT/detection-dog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84068825-A51A-45D9-9695-B1875DA6DCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{84068825-A51A-45D9-9695-B1875DA6DCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AB7BA88-4566-4569-B4FA-6835DAA20DAD}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2865" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{78F3DDC6-AADC-4A30-A654-FCA5E2B59584}"/>
+    <workbookView xWindow="28680" yWindow="-2865" windowWidth="29040" windowHeight="15720" xr2:uid="{78F3DDC6-AADC-4A30-A654-FCA5E2B59584}"/>
   </bookViews>
   <sheets>
     <sheet name="dog" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -109,13 +109,19 @@
   </si>
   <si>
     <t>42 minutes 48 seconds</t>
+  </si>
+  <si>
+    <t>14 minutes 27 seconds</t>
+  </si>
+  <si>
+    <t>Worked uphill. Picked up odour pooling around trees uphill of target and then worked back down to target. Koda slightly hot.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,13 +157,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,27 +496,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35957C9B-8F96-413D-BC7D-E3550DA63DD4}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.08203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.58203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.08203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.08203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.26953125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="146" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -540,7 +545,7 @@
       <c r="I1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -550,9 +555,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>45752</v>
+        <v>45766</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
@@ -578,7 +583,7 @@
       <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2">
         <v>594</v>
       </c>
       <c r="K2" s="2" t="s">
@@ -588,9 +593,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>45753</v>
+        <v>45767</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
@@ -616,7 +621,7 @@
       <c r="I3" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3">
         <v>451</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -624,6 +629,44 @@
       </c>
       <c r="L3" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>45772</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E4">
+        <v>23</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4">
+        <v>867</v>
+      </c>
+      <c r="K4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -635,21 +678,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A64F118-EA99-4C9D-A343-CF56CB35EAE1}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.08203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.08203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.58203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="122.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="122.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -675,7 +718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45753</v>
       </c>
@@ -691,7 +734,7 @@
       <c r="E2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2">
         <v>2568</v>
       </c>
       <c r="G2" t="s">
@@ -701,100 +744,100 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="6:6">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="6:6">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="6:6">
+    <row r="19" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="6:6">
+    <row r="20" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="6:6">
+    <row r="21" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="6:6">
+    <row r="22" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="6:6">
+    <row r="23" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="6:6">
+    <row r="24" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="6:6">
+    <row r="25" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="6:6">
+    <row r="26" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="6:6">
+    <row r="27" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="6:6">
+    <row r="28" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="6:6">
+    <row r="29" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="6:6">
+    <row r="30" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="6:6">
+    <row r="31" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="6:6">
+    <row r="32" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="6:6">
+    <row r="33" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="6:6">
+    <row r="34" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F34" s="2"/>
     </row>
   </sheetData>

--- a/detection field test data.xlsx
+++ b/detection field test data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3a69dc1a79d235a/2 PhD/GIT/detection-dog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{84068825-A51A-45D9-9695-B1875DA6DCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AB7BA88-4566-4569-B4FA-6835DAA20DAD}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{84068825-A51A-45D9-9695-B1875DA6DCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0728C16-637E-48B4-8FF3-988E33717E7E}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2865" windowWidth="29040" windowHeight="15720" xr2:uid="{78F3DDC6-AADC-4A30-A654-FCA5E2B59584}"/>
+    <workbookView xWindow="28680" yWindow="-2865" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{78F3DDC6-AADC-4A30-A654-FCA5E2B59584}"/>
   </bookViews>
   <sheets>
     <sheet name="dog" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>Worked uphill. Picked up odour pooling around trees uphill of target and then worked back down to target. Koda slightly hot.</t>
+  </si>
+  <si>
+    <t>42 minutes 57 seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used shorter transects with cone marker aids. Fatigue around 3/4 through but better focus. </t>
   </si>
 </sst>
 </file>
@@ -177,6 +183,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -498,7 +508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35957C9B-8F96-413D-BC7D-E3550DA63DD4}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -678,12 +688,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A64F118-EA99-4C9D-A343-CF56CB35EAE1}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.08984375" bestFit="1" customWidth="1"/>
@@ -745,7 +756,30 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F3" s="2"/>
+      <c r="A3" s="1">
+        <v>45772</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2577</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F4" s="2"/>

--- a/detection field test data.xlsx
+++ b/detection field test data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3a69dc1a79d235a/2 PhD/GIT/detection-dog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{84068825-A51A-45D9-9695-B1875DA6DCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0728C16-637E-48B4-8FF3-988E33717E7E}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{84068825-A51A-45D9-9695-B1875DA6DCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F0A074F-6C49-404B-9CEE-5B2EE67EAAF4}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2865" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{78F3DDC6-AADC-4A30-A654-FCA5E2B59584}"/>
+    <workbookView xWindow="28680" yWindow="-2865" windowWidth="29040" windowHeight="15720" xr2:uid="{78F3DDC6-AADC-4A30-A654-FCA5E2B59584}"/>
   </bookViews>
   <sheets>
     <sheet name="dog" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t xml:space="preserve">Used shorter transects with cone marker aids. Fatigue around 3/4 through but better focus. </t>
+  </si>
+  <si>
+    <t>19 minutes 51 seconds</t>
+  </si>
+  <si>
+    <t>Worked downhill, transmitter near end of search. Really clear alert even when I tried to pull her off target and good focus with duration.</t>
   </si>
 </sst>
 </file>
@@ -506,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35957C9B-8F96-413D-BC7D-E3550DA63DD4}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -679,6 +685,44 @@
         <v>25</v>
       </c>
     </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>45779</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E5">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5">
+        <v>1191</v>
+      </c>
+      <c r="K5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -686,10 +730,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A64F118-EA99-4C9D-A343-CF56CB35EAE1}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -771,7 +815,7 @@
       <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3">
         <v>2577</v>
       </c>
       <c r="G3" t="s">
@@ -780,99 +824,6 @@
       <c r="H3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F34" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/detection field test data.xlsx
+++ b/detection field test data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3a69dc1a79d235a/2 PhD/GIT/detection-dog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{84068825-A51A-45D9-9695-B1875DA6DCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F0A074F-6C49-404B-9CEE-5B2EE67EAAF4}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{84068825-A51A-45D9-9695-B1875DA6DCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{123216EE-2A82-419E-85D7-3C9141DC4B6B}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2865" windowWidth="29040" windowHeight="15720" xr2:uid="{78F3DDC6-AADC-4A30-A654-FCA5E2B59584}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -127,13 +127,28 @@
   </si>
   <si>
     <t>Worked downhill, transmitter near end of search. Really clear alert even when I tried to pull her off target and good focus with duration.</t>
+  </si>
+  <si>
+    <t>18 minutes 48 seconds</t>
+  </si>
+  <si>
+    <t>Secondary checks</t>
+  </si>
+  <si>
+    <t>Worked downill. Missed on transects but picked up when returned to point of interest at logs. Koda a bit distracted.</t>
+  </si>
+  <si>
+    <t>Searcher</t>
+  </si>
+  <si>
+    <t>ML</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +161,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -169,11 +192,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35957C9B-8F96-413D-BC7D-E3550DA63DD4}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -723,6 +747,44 @@
         <v>29</v>
       </c>
     </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>45781</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.47222222222222221</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="E6">
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6">
+        <v>1126</v>
+      </c>
+      <c r="K6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -730,102 +792,112 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A64F118-EA99-4C9D-A343-CF56CB35EAE1}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="122.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="122.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1">
         <v>45753</v>
       </c>
-      <c r="B2" s="2">
+      <c r="C2" s="2">
         <v>0.61111111111111116</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="b">
+      <c r="E2" t="b">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>23</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>2568</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="1">
         <v>45772</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C3" s="2">
         <v>0.63194444444444442</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="b">
+      <c r="E3" t="b">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>26</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>2577</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/detection field test data.xlsx
+++ b/detection field test data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3a69dc1a79d235a/2 PhD/GIT/detection-dog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{84068825-A51A-45D9-9695-B1875DA6DCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{123216EE-2A82-419E-85D7-3C9141DC4B6B}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="13_ncr:1_{84068825-A51A-45D9-9695-B1875DA6DCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{081935E5-1B97-479A-BAEE-986D1C16242F}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2865" windowWidth="29040" windowHeight="15720" xr2:uid="{78F3DDC6-AADC-4A30-A654-FCA5E2B59584}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{78F3DDC6-AADC-4A30-A654-FCA5E2B59584}"/>
   </bookViews>
   <sheets>
     <sheet name="dog" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t>Date</t>
   </si>
@@ -135,13 +135,22 @@
     <t>Secondary checks</t>
   </si>
   <si>
-    <t>Worked downill. Missed on transects but picked up when returned to point of interest at logs. Koda a bit distracted.</t>
-  </si>
-  <si>
     <t>Searcher</t>
   </si>
   <si>
-    <t>ML</t>
+    <t>ABSENCE</t>
+  </si>
+  <si>
+    <t>20 minutes 50 seconds</t>
+  </si>
+  <si>
+    <t>Worked downhill. Missed on transects but picked up when returned to point of interest at logs. Koda a bit distracted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked downhill. Good focus and lots of air scenting. No areas of interest to return to. </t>
+  </si>
+  <si>
+    <t>Marc Layton</t>
   </si>
 </sst>
 </file>
@@ -536,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35957C9B-8F96-413D-BC7D-E3550DA63DD4}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -782,7 +791,45 @@
         <v>31</v>
       </c>
       <c r="L6" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>45788</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="E7">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7">
+        <v>1250</v>
+      </c>
+      <c r="K7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -792,26 +839,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A64F118-EA99-4C9D-A343-CF56CB35EAE1}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.08984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="122.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="122.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -832,15 +879,12 @@
         <v>19</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1">
         <v>45753</v>
@@ -861,15 +905,12 @@
         <v>2568</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1">
         <v>45772</v>
@@ -890,9 +931,6 @@
         <v>2577</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
         <v>27</v>
       </c>
     </row>

--- a/detection field test data.xlsx
+++ b/detection field test data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3a69dc1a79d235a/2 PhD/GIT/detection-dog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="13_ncr:1_{84068825-A51A-45D9-9695-B1875DA6DCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{081935E5-1B97-479A-BAEE-986D1C16242F}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="13_ncr:1_{84068825-A51A-45D9-9695-B1875DA6DCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD214E51-6DE7-4F91-B72A-C2AFC7C30A0C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{78F3DDC6-AADC-4A30-A654-FCA5E2B59584}"/>
+    <workbookView xWindow="28680" yWindow="-2865" windowWidth="29040" windowHeight="15720" xr2:uid="{78F3DDC6-AADC-4A30-A654-FCA5E2B59584}"/>
   </bookViews>
   <sheets>
     <sheet name="dog" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
   <si>
     <t>Date</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>Marc Layton</t>
+  </si>
+  <si>
+    <t>5 minutes 30 seconds</t>
+  </si>
+  <si>
+    <t>Worked downhill. Koda got onto odour 1/4 way through and pulled immediately downhill to about 1/2 along the transect. Took me 10 seconds to catch up!</t>
   </si>
 </sst>
 </file>
@@ -545,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35957C9B-8F96-413D-BC7D-E3550DA63DD4}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -830,6 +836,44 @@
       </c>
       <c r="L7" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>45793</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="E8">
+        <v>18</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8">
+        <v>330</v>
+      </c>
+      <c r="K8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/detection field test data.xlsx
+++ b/detection field test data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3a69dc1a79d235a/2 PhD/GIT/detection-dog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="13_ncr:1_{84068825-A51A-45D9-9695-B1875DA6DCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD214E51-6DE7-4F91-B72A-C2AFC7C30A0C}"/>
+  <xr:revisionPtr revIDLastSave="126" documentId="13_ncr:1_{84068825-A51A-45D9-9695-B1875DA6DCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{105B5884-4A39-49F0-B212-0223C86DBCBB}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2865" windowWidth="29040" windowHeight="15720" xr2:uid="{78F3DDC6-AADC-4A30-A654-FCA5E2B59584}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
   <si>
     <t>Date</t>
   </si>
@@ -157,6 +157,24 @@
   </si>
   <si>
     <t>Worked downhill. Koda got onto odour 1/4 way through and pulled immediately downhill to about 1/2 along the transect. Took me 10 seconds to catch up!</t>
+  </si>
+  <si>
+    <t>previous morning</t>
+  </si>
+  <si>
+    <t>previous evening</t>
+  </si>
+  <si>
+    <t>16 minutes 47 seconds</t>
+  </si>
+  <si>
+    <t>Worked downhill. Did not get onto odour. Search got derailed by Koda picking up odour of a frisbee next to the search area. Probably going to exclude because ignoring a high value item is not part of the controlled evaluation protocol/</t>
+  </si>
+  <si>
+    <t>1 minute 31 seconds</t>
+  </si>
+  <si>
+    <t>Worked uphill. Found on the first sweep and I saw it the moment Koda dropped into an alert.</t>
   </si>
 </sst>
 </file>
@@ -551,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35957C9B-8F96-413D-BC7D-E3550DA63DD4}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -565,7 +583,7 @@
     <col min="4" max="4" width="14.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.08984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.08984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.26953125" bestFit="1" customWidth="1"/>
@@ -845,8 +863,8 @@
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2">
-        <v>0.30208333333333331</v>
+      <c r="C8" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="D8" s="2">
         <v>0.58680555555555558</v>
@@ -874,6 +892,82 @@
       </c>
       <c r="L8" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>45796</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E9">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9">
+        <v>1007</v>
+      </c>
+      <c r="K9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>45797</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="E10">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10">
+        <v>91</v>
+      </c>
+      <c r="K10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/detection field test data.xlsx
+++ b/detection field test data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3a69dc1a79d235a/2 PhD/GIT/detection-dog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="126" documentId="13_ncr:1_{84068825-A51A-45D9-9695-B1875DA6DCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{105B5884-4A39-49F0-B212-0223C86DBCBB}"/>
+  <xr:revisionPtr revIDLastSave="153" documentId="13_ncr:1_{84068825-A51A-45D9-9695-B1875DA6DCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC65A9B5-9DB4-4EF6-8148-B880465B738D}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2865" windowWidth="29040" windowHeight="15720" xr2:uid="{78F3DDC6-AADC-4A30-A654-FCA5E2B59584}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
   <si>
     <t>Date</t>
   </si>
@@ -168,13 +168,28 @@
     <t>16 minutes 47 seconds</t>
   </si>
   <si>
-    <t>Worked downhill. Did not get onto odour. Search got derailed by Koda picking up odour of a frisbee next to the search area. Probably going to exclude because ignoring a high value item is not part of the controlled evaluation protocol/</t>
-  </si>
-  <si>
     <t>1 minute 31 seconds</t>
   </si>
   <si>
     <t>Worked uphill. Found on the first sweep and I saw it the moment Koda dropped into an alert.</t>
+  </si>
+  <si>
+    <t>Overcast, mild</t>
+  </si>
+  <si>
+    <t>Worked downhill. Did not get onto odour. Search got derailed by Koda picking up odour of a frisbee next to the search area. Probably going to exclude because ignoring a high value item is not part of the controlled evaluation protocol.</t>
+  </si>
+  <si>
+    <t>2 minutes 19 seconds</t>
+  </si>
+  <si>
+    <t>Worked uphill. Found on the second sweep and Koda did a great job sourcing odour among complex tussock.</t>
+  </si>
+  <si>
+    <t>2 minutes 21 seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked downhill. Was on third sweep when Koda belted down hill and found it very fast, amazing - best find yet. </t>
   </si>
 </sst>
 </file>
@@ -569,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35957C9B-8F96-413D-BC7D-E3550DA63DD4}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -929,7 +944,7 @@
         <v>16</v>
       </c>
       <c r="L9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -958,7 +973,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J10">
         <v>91</v>
@@ -967,7 +982,83 @@
         <v>11</v>
       </c>
       <c r="L10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>45798</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.51388888888888884</v>
+      </c>
+      <c r="E11">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
         <v>45</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11">
+        <v>139</v>
+      </c>
+      <c r="K11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>45802</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.46527777777777779</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="E12">
+        <v>16</v>
+      </c>
+      <c r="F12">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12">
+        <v>141</v>
+      </c>
+      <c r="K12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/detection field test data.xlsx
+++ b/detection field test data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3a69dc1a79d235a/2 PhD/GIT/detection-dog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="153" documentId="13_ncr:1_{84068825-A51A-45D9-9695-B1875DA6DCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC65A9B5-9DB4-4EF6-8148-B880465B738D}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="13_ncr:1_{84068825-A51A-45D9-9695-B1875DA6DCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DF92E2A-120B-478D-BA01-98A6778706A9}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2865" windowWidth="29040" windowHeight="15720" xr2:uid="{78F3DDC6-AADC-4A30-A654-FCA5E2B59584}"/>
   </bookViews>
@@ -587,7 +587,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/detection field test data.xlsx
+++ b/detection field test data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3a69dc1a79d235a/2 PhD/GIT/detection-dog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="155" documentId="13_ncr:1_{84068825-A51A-45D9-9695-B1875DA6DCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DF92E2A-120B-478D-BA01-98A6778706A9}"/>
+  <xr:revisionPtr revIDLastSave="167" documentId="13_ncr:1_{84068825-A51A-45D9-9695-B1875DA6DCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D61982BE-B171-4BF7-8401-E849D6563C94}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2865" windowWidth="29040" windowHeight="15720" xr2:uid="{78F3DDC6-AADC-4A30-A654-FCA5E2B59584}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="53">
   <si>
     <t>Date</t>
   </si>
@@ -190,6 +190,12 @@
   </si>
   <si>
     <t xml:space="preserve">Worked downhill. Was on third sweep when Koda belted down hill and found it very fast, amazing - best find yet. </t>
+  </si>
+  <si>
+    <t>3 minutes 20 seconds</t>
+  </si>
+  <si>
+    <t>Worked downhill. Once again on third sweep when Koda picked up odour and belted downhill.</t>
   </si>
 </sst>
 </file>
@@ -584,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35957C9B-8F96-413D-BC7D-E3550DA63DD4}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1059,6 +1065,44 @@
       </c>
       <c r="L12" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>45803</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="E13">
+        <v>15</v>
+      </c>
+      <c r="F13">
+        <v>9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13">
+        <v>200</v>
+      </c>
+      <c r="K13" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/detection field test data.xlsx
+++ b/detection field test data.xlsx
@@ -592,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35957C9B-8F96-413D-BC7D-E3550DA63DD4}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/detection field test data.xlsx
+++ b/detection field test data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3a69dc1a79d235a/2 PhD/GIT/detection-dog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="167" documentId="13_ncr:1_{84068825-A51A-45D9-9695-B1875DA6DCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D61982BE-B171-4BF7-8401-E849D6563C94}"/>
+  <xr:revisionPtr revIDLastSave="194" documentId="13_ncr:1_{84068825-A51A-45D9-9695-B1875DA6DCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12322987-BEBB-4D93-95C1-E06190547E14}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2865" windowWidth="29040" windowHeight="15720" xr2:uid="{78F3DDC6-AADC-4A30-A654-FCA5E2B59584}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="57">
   <si>
     <t>Date</t>
   </si>
@@ -196,6 +196,18 @@
   </si>
   <si>
     <t>Worked downhill. Once again on third sweep when Koda picked up odour and belted downhill.</t>
+  </si>
+  <si>
+    <t>14 minutes 9 seconds</t>
+  </si>
+  <si>
+    <t>Worked downhill. Koda did a really thorough sweep so I was fairly convinced there was no target, but we still completed the zig zag transects before finishing the search.</t>
+  </si>
+  <si>
+    <t>1 minute 12 seconds</t>
+  </si>
+  <si>
+    <t>Sent Koda in and she searched downhill and got onto odour in less than a minute.</t>
   </si>
 </sst>
 </file>
@@ -590,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35957C9B-8F96-413D-BC7D-E3550DA63DD4}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1103,6 +1115,82 @@
       </c>
       <c r="L13" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>45805</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="E14">
+        <v>15</v>
+      </c>
+      <c r="F14">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14">
+        <v>849</v>
+      </c>
+      <c r="K14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>45807</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="E15">
+        <v>16</v>
+      </c>
+      <c r="F15">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15">
+        <v>72</v>
+      </c>
+      <c r="K15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/detection field test data.xlsx
+++ b/detection field test data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3a69dc1a79d235a/2 PhD/GIT/detection-dog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="194" documentId="13_ncr:1_{84068825-A51A-45D9-9695-B1875DA6DCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12322987-BEBB-4D93-95C1-E06190547E14}"/>
+  <xr:revisionPtr revIDLastSave="199" documentId="13_ncr:1_{84068825-A51A-45D9-9695-B1875DA6DCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CD86FD2-2880-4D5B-ADBA-06DC99626684}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2865" windowWidth="29040" windowHeight="15720" xr2:uid="{78F3DDC6-AADC-4A30-A654-FCA5E2B59584}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="57">
   <si>
     <t>Date</t>
   </si>
@@ -602,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35957C9B-8F96-413D-BC7D-E3550DA63DD4}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1191,6 +1191,20 @@
       </c>
       <c r="L15" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>45808</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.52777777777777779</v>
       </c>
     </row>
   </sheetData>

--- a/detection field test data.xlsx
+++ b/detection field test data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3a69dc1a79d235a/2 PhD/GIT/detection-dog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="199" documentId="13_ncr:1_{84068825-A51A-45D9-9695-B1875DA6DCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CD86FD2-2880-4D5B-ADBA-06DC99626684}"/>
+  <xr:revisionPtr revIDLastSave="244" documentId="13_ncr:1_{84068825-A51A-45D9-9695-B1875DA6DCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FBEEB26-0AD2-42A2-A126-D8AC5ACF7668}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2865" windowWidth="29040" windowHeight="15720" xr2:uid="{78F3DDC6-AADC-4A30-A654-FCA5E2B59584}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="65">
   <si>
     <t>Date</t>
   </si>
@@ -208,6 +208,30 @@
   </si>
   <si>
     <t>Sent Koda in and she searched downhill and got onto odour in less than a minute.</t>
+  </si>
+  <si>
+    <t>7 minutes 1 second</t>
+  </si>
+  <si>
+    <t>Worked downhill - but wind changed to downhill direction. Slightly trickier but Koda sourced after some redirecting.</t>
+  </si>
+  <si>
+    <t>30 seconds</t>
+  </si>
+  <si>
+    <t>Worked uphill and found on the very first transect, it was so fast I nearly didn't belive it.</t>
+  </si>
+  <si>
+    <t>13 minutes 23 seconds</t>
+  </si>
+  <si>
+    <t>Worked uphill. Was pretty sure half way through there was no target because she was just loosely following me, but completed zig zags before finishing search.</t>
+  </si>
+  <si>
+    <t>1 minute 20 seconds</t>
+  </si>
+  <si>
+    <t>Worked downhill. Found on the second sweep, nearly invisible under tussock.</t>
   </si>
 </sst>
 </file>
@@ -602,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35957C9B-8F96-413D-BC7D-E3550DA63DD4}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1205,6 +1229,144 @@
       </c>
       <c r="D16" s="2">
         <v>0.52777777777777779</v>
+      </c>
+      <c r="E16">
+        <v>17</v>
+      </c>
+      <c r="F16">
+        <v>7</v>
+      </c>
+      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16">
+        <v>421</v>
+      </c>
+      <c r="K16" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>45808</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <v>7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17">
+        <v>30</v>
+      </c>
+      <c r="K17" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>45809</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E18">
+        <v>15</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
+      </c>
+      <c r="G18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18">
+        <v>803</v>
+      </c>
+      <c r="K18" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>45809</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="E19">
+        <v>14</v>
+      </c>
+      <c r="F19">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>63</v>
+      </c>
+      <c r="J19">
+        <v>80</v>
+      </c>
+      <c r="K19" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/detection field test data.xlsx
+++ b/detection field test data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3a69dc1a79d235a/2 PhD/GIT/detection-dog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="244" documentId="13_ncr:1_{84068825-A51A-45D9-9695-B1875DA6DCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FBEEB26-0AD2-42A2-A126-D8AC5ACF7668}"/>
+  <xr:revisionPtr revIDLastSave="272" documentId="13_ncr:1_{84068825-A51A-45D9-9695-B1875DA6DCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28E9FD3E-6F5A-4A49-8EE3-720B4CBCCFFB}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2865" windowWidth="29040" windowHeight="15720" xr2:uid="{78F3DDC6-AADC-4A30-A654-FCA5E2B59584}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="69">
   <si>
     <t>Date</t>
   </si>
@@ -232,6 +232,18 @@
   </si>
   <si>
     <t>Worked downhill. Found on the second sweep, nearly invisible under tussock.</t>
+  </si>
+  <si>
+    <t>3 minutes 50 seconds</t>
+  </si>
+  <si>
+    <t>Worked uphill, but the wind was more of a cross breeze.</t>
+  </si>
+  <si>
+    <t>7 minutes 41 seconds</t>
+  </si>
+  <si>
+    <t>Worked downhill. Missed on transects (apparently because I was standing on it when we passed) but picked up during the perimeter sweep.</t>
   </si>
 </sst>
 </file>
@@ -626,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35957C9B-8F96-413D-BC7D-E3550DA63DD4}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1367,6 +1379,82 @@
       </c>
       <c r="L19" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>45810</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.51388888888888884</v>
+      </c>
+      <c r="E20">
+        <v>13</v>
+      </c>
+      <c r="F20">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>65</v>
+      </c>
+      <c r="J20">
+        <v>230</v>
+      </c>
+      <c r="K20" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>45810</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.53125</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="E21">
+        <v>11</v>
+      </c>
+      <c r="F21">
+        <v>9</v>
+      </c>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21">
+        <v>461</v>
+      </c>
+      <c r="K21" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/detection field test data.xlsx
+++ b/detection field test data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3a69dc1a79d235a/2 PhD/GIT/detection-dog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="272" documentId="13_ncr:1_{84068825-A51A-45D9-9695-B1875DA6DCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28E9FD3E-6F5A-4A49-8EE3-720B4CBCCFFB}"/>
+  <xr:revisionPtr revIDLastSave="344" documentId="13_ncr:1_{84068825-A51A-45D9-9695-B1875DA6DCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{859CD1C4-EF7B-40CC-AF51-9A41E508AE5E}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2865" windowWidth="29040" windowHeight="15720" xr2:uid="{78F3DDC6-AADC-4A30-A654-FCA5E2B59584}"/>
+    <workbookView xWindow="28680" yWindow="-2865" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{78F3DDC6-AADC-4A30-A654-FCA5E2B59584}"/>
   </bookViews>
   <sheets>
     <sheet name="dog" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="80">
   <si>
     <t>Date</t>
   </si>
@@ -150,9 +150,6 @@
     <t xml:space="preserve">Worked downhill. Good focus and lots of air scenting. No areas of interest to return to. </t>
   </si>
   <si>
-    <t>Marc Layton</t>
-  </si>
-  <si>
     <t>5 minutes 30 seconds</t>
   </si>
   <si>
@@ -244,6 +241,42 @@
   </si>
   <si>
     <t>Worked downhill. Missed on transects (apparently because I was standing on it when we passed) but picked up during the perimeter sweep.</t>
+  </si>
+  <si>
+    <t>2 minutes 30 seconds</t>
+  </si>
+  <si>
+    <t>Worked downhill. Tricky to see once found, good search effort.</t>
+  </si>
+  <si>
+    <t>1 hour</t>
+  </si>
+  <si>
+    <t>28 minutes 50 seconds</t>
+  </si>
+  <si>
+    <t>Worked downhill. Found rain moth casings. Found it tiring.</t>
+  </si>
+  <si>
+    <t>Worked uphill. Found GPS! Find was 3/4 of the way through, worked faster than the first attempt.</t>
+  </si>
+  <si>
+    <t>Marc</t>
+  </si>
+  <si>
+    <t>Maisie</t>
+  </si>
+  <si>
+    <t>Micha</t>
+  </si>
+  <si>
+    <t>25 minutes 27 seconds</t>
+  </si>
+  <si>
+    <t>Spiral search. More realistic time and search, GPS &lt;10m from centre.</t>
+  </si>
+  <si>
+    <t>Spiral search. Very fast find- entirely luck based, GPS was &lt;2m from centre.</t>
   </si>
 </sst>
 </file>
@@ -638,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35957C9B-8F96-413D-BC7D-E3550DA63DD4}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -933,7 +966,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2">
         <v>0.58680555555555558</v>
@@ -951,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J8">
         <v>330</v>
@@ -960,7 +993,7 @@
         <v>11</v>
       </c>
       <c r="L8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -971,7 +1004,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2">
         <v>0.45833333333333331</v>
@@ -989,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J9">
         <v>1007</v>
@@ -998,7 +1031,7 @@
         <v>16</v>
       </c>
       <c r="L9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -1027,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>91</v>
@@ -1036,7 +1069,7 @@
         <v>11</v>
       </c>
       <c r="L10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
@@ -1059,13 +1092,13 @@
         <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J11">
         <v>139</v>
@@ -1074,7 +1107,7 @@
         <v>11</v>
       </c>
       <c r="L11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
@@ -1103,7 +1136,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J12">
         <v>141</v>
@@ -1112,7 +1145,7 @@
         <v>11</v>
       </c>
       <c r="L12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
@@ -1135,13 +1168,13 @@
         <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J13">
         <v>200</v>
@@ -1150,7 +1183,7 @@
         <v>11</v>
       </c>
       <c r="L13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
@@ -1179,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J14">
         <v>849</v>
@@ -1188,7 +1221,7 @@
         <v>16</v>
       </c>
       <c r="L14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
@@ -1217,7 +1250,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J15">
         <v>72</v>
@@ -1226,7 +1259,7 @@
         <v>11</v>
       </c>
       <c r="L15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
@@ -1255,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J16">
         <v>421</v>
@@ -1264,7 +1297,7 @@
         <v>11</v>
       </c>
       <c r="L16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
@@ -1293,7 +1326,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J17">
         <v>30</v>
@@ -1302,7 +1335,7 @@
         <v>11</v>
       </c>
       <c r="L17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
@@ -1331,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J18">
         <v>803</v>
@@ -1340,7 +1373,7 @@
         <v>16</v>
       </c>
       <c r="L18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
@@ -1369,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J19">
         <v>80</v>
@@ -1378,7 +1411,7 @@
         <v>11</v>
       </c>
       <c r="L19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
@@ -1407,7 +1440,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J20">
         <v>230</v>
@@ -1416,7 +1449,7 @@
         <v>11</v>
       </c>
       <c r="L20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
@@ -1445,7 +1478,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J21">
         <v>461</v>
@@ -1454,7 +1487,45 @@
         <v>31</v>
       </c>
       <c r="L21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>45811</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.30555555555555558</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E22">
+        <v>13</v>
+      </c>
+      <c r="F22">
+        <v>9</v>
+      </c>
+      <c r="G22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
         <v>68</v>
+      </c>
+      <c r="J22">
+        <v>150</v>
+      </c>
+      <c r="K22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1464,15 +1535,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A64F118-EA99-4C9D-A343-CF56CB35EAE1}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
@@ -1509,7 +1580,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="B2" s="1">
         <v>45753</v>
@@ -1535,7 +1606,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="B3" s="1">
         <v>45772</v>
@@ -1557,6 +1628,110 @@
       </c>
       <c r="H3" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45811</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4">
+        <v>3600</v>
+      </c>
+      <c r="H4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45811</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5">
+        <v>1730</v>
+      </c>
+      <c r="H5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45812</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6">
+        <v>141</v>
+      </c>
+      <c r="H6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45812</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7">
+        <v>1527</v>
+      </c>
+      <c r="H7" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/detection field test data.xlsx
+++ b/detection field test data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3a69dc1a79d235a/2 PhD/GIT/detection-dog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="344" documentId="13_ncr:1_{84068825-A51A-45D9-9695-B1875DA6DCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{859CD1C4-EF7B-40CC-AF51-9A41E508AE5E}"/>
+  <xr:revisionPtr revIDLastSave="405" documentId="13_ncr:1_{84068825-A51A-45D9-9695-B1875DA6DCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC207623-97CE-4449-B273-D755472DF265}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2865" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{78F3DDC6-AADC-4A30-A654-FCA5E2B59584}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="91">
   <si>
     <t>Date</t>
   </si>
@@ -90,9 +90,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Used transects with tape marker aids. Became fatigued about half way through and commented the hardest part was staying focused and positive.</t>
-  </si>
-  <si>
     <t>Search time mins</t>
   </si>
   <si>
@@ -120,9 +117,6 @@
     <t>42 minutes 57 seconds</t>
   </si>
   <si>
-    <t xml:space="preserve">Used shorter transects with cone marker aids. Fatigue around 3/4 through but better focus. </t>
-  </si>
-  <si>
     <t>19 minutes 51 seconds</t>
   </si>
   <si>
@@ -174,9 +168,6 @@
     <t>Overcast, mild</t>
   </si>
   <si>
-    <t>Worked downhill. Did not get onto odour. Search got derailed by Koda picking up odour of a frisbee next to the search area. Probably going to exclude because ignoring a high value item is not part of the controlled evaluation protocol.</t>
-  </si>
-  <si>
     <t>2 minutes 19 seconds</t>
   </si>
   <si>
@@ -255,12 +246,6 @@
     <t>28 minutes 50 seconds</t>
   </si>
   <si>
-    <t>Worked downhill. Found rain moth casings. Found it tiring.</t>
-  </si>
-  <si>
-    <t>Worked uphill. Found GPS! Find was 3/4 of the way through, worked faster than the first attempt.</t>
-  </si>
-  <si>
     <t>Marc</t>
   </si>
   <si>
@@ -273,10 +258,58 @@
     <t>25 minutes 27 seconds</t>
   </si>
   <si>
-    <t>Spiral search. More realistic time and search, GPS &lt;10m from centre.</t>
-  </si>
-  <si>
-    <t>Spiral search. Very fast find- entirely luck based, GPS was &lt;2m from centre.</t>
+    <t>Spiral search from centre out. Very fast find- entirely luck based, GPS was &lt;2m from centre.</t>
+  </si>
+  <si>
+    <t>Spiral search from centre out. More realistic time and search, GPS &lt;10m from centre.</t>
+  </si>
+  <si>
+    <t>52 minutes 53 seconds</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Overcast, cold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spiral search from outside in then inside out. </t>
+  </si>
+  <si>
+    <t>Partly sunny, cool.</t>
+  </si>
+  <si>
+    <t>Transects (long length) with tape marker aids. Became fatigued about half way through and commented the hardest part was staying focused and positive.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transects (short length) with cone marker aids. Fatigue around 3/4 through but better focus. </t>
+  </si>
+  <si>
+    <t>Transects (short length) no aids. Found rain moth casings. Found it tiring.</t>
+  </si>
+  <si>
+    <t>Transects (short length) no aids. Found GPS! Find was 3/4 of the way through, worked faster than the first attempt.</t>
+  </si>
+  <si>
+    <t>Transects (short length) and perimeter search.</t>
+  </si>
+  <si>
+    <t>Worked downhill. Did not get onto odour. Search got derailed by Koda picking up odour of a frisbee next to the search area. Search abandoned because ignoring a high value item is not part of the controlled evaluation protocol.</t>
+  </si>
+  <si>
+    <t>Rachael</t>
+  </si>
+  <si>
+    <t>Overcast, cool.</t>
+  </si>
+  <si>
+    <t>59 minutes 26 seconds</t>
+  </si>
+  <si>
+    <t>Transects (short length) and random walk.</t>
+  </si>
+  <si>
+    <t>Transects (short length) and random walk. Actually found GPS but after the 1 hour maximum time had elapsed.</t>
   </si>
 </sst>
 </file>
@@ -327,12 +360,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35957C9B-8F96-413D-BC7D-E3550DA63DD4}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -718,10 +754,10 @@
         <v>4</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>10</v>
@@ -756,7 +792,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J2">
         <v>594</v>
@@ -794,7 +830,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J3">
         <v>451</v>
@@ -832,7 +868,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J4">
         <v>867</v>
@@ -841,7 +877,7 @@
         <v>11</v>
       </c>
       <c r="L4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -870,7 +906,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J5">
         <v>1191</v>
@@ -879,7 +915,7 @@
         <v>11</v>
       </c>
       <c r="L5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -908,16 +944,16 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J6">
         <v>1126</v>
       </c>
       <c r="K6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -925,7 +961,7 @@
         <v>45788</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -946,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J7">
         <v>1250</v>
@@ -955,7 +991,7 @@
         <v>16</v>
       </c>
       <c r="L7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -966,7 +1002,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" s="2">
         <v>0.58680555555555558</v>
@@ -984,7 +1020,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J8">
         <v>330</v>
@@ -993,7 +1029,7 @@
         <v>11</v>
       </c>
       <c r="L8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -1004,7 +1040,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D9" s="2">
         <v>0.45833333333333331</v>
@@ -1018,11 +1054,11 @@
       <c r="G9" t="s">
         <v>15</v>
       </c>
-      <c r="H9" t="b">
-        <v>0</v>
+      <c r="H9" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J9">
         <v>1007</v>
@@ -1031,7 +1067,7 @@
         <v>16</v>
       </c>
       <c r="L9" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -1060,7 +1096,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J10">
         <v>91</v>
@@ -1069,7 +1105,7 @@
         <v>11</v>
       </c>
       <c r="L10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
@@ -1092,13 +1128,13 @@
         <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J11">
         <v>139</v>
@@ -1107,7 +1143,7 @@
         <v>11</v>
       </c>
       <c r="L11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
@@ -1136,7 +1172,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J12">
         <v>141</v>
@@ -1145,7 +1181,7 @@
         <v>11</v>
       </c>
       <c r="L12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
@@ -1168,13 +1204,13 @@
         <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J13">
         <v>200</v>
@@ -1183,7 +1219,7 @@
         <v>11</v>
       </c>
       <c r="L13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
@@ -1191,7 +1227,7 @@
         <v>45805</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -1212,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J14">
         <v>849</v>
@@ -1221,7 +1257,7 @@
         <v>16</v>
       </c>
       <c r="L14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
@@ -1250,7 +1286,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J15">
         <v>72</v>
@@ -1259,7 +1295,7 @@
         <v>11</v>
       </c>
       <c r="L15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
@@ -1288,7 +1324,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J16">
         <v>421</v>
@@ -1297,7 +1333,7 @@
         <v>11</v>
       </c>
       <c r="L16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
@@ -1326,7 +1362,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J17">
         <v>30</v>
@@ -1335,7 +1371,7 @@
         <v>11</v>
       </c>
       <c r="L17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
@@ -1343,7 +1379,7 @@
         <v>45809</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
         <v>16</v>
@@ -1364,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J18">
         <v>803</v>
@@ -1373,7 +1409,7 @@
         <v>16</v>
       </c>
       <c r="L18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
@@ -1402,7 +1438,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J19">
         <v>80</v>
@@ -1411,7 +1447,7 @@
         <v>11</v>
       </c>
       <c r="L19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
@@ -1440,7 +1476,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J20">
         <v>230</v>
@@ -1449,7 +1485,7 @@
         <v>11</v>
       </c>
       <c r="L20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
@@ -1478,16 +1514,16 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J21">
         <v>461</v>
       </c>
       <c r="K21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
@@ -1516,7 +1552,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J22">
         <v>150</v>
@@ -1525,7 +1561,7 @@
         <v>11</v>
       </c>
       <c r="L22" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1535,10 +1571,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A64F118-EA99-4C9D-A343-CF56CB35EAE1}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1546,7 +1582,7 @@
     <col min="1" max="1" width="8.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.08984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="122.7265625" bestFit="1" customWidth="1"/>
@@ -1554,7 +1590,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1569,10 +1605,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>5</v>
@@ -1580,7 +1616,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B2" s="1">
         <v>45753</v>
@@ -1595,18 +1631,18 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2">
         <v>2568</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B3" s="1">
         <v>45772</v>
@@ -1621,18 +1657,18 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3">
         <v>2577</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1">
         <v>45811</v>
@@ -1647,18 +1683,18 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G4">
         <v>3600</v>
       </c>
       <c r="H4" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1">
         <v>45811</v>
@@ -1673,18 +1709,18 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G5">
         <v>1730</v>
       </c>
       <c r="H5" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B6" s="1">
         <v>45812</v>
@@ -1699,18 +1735,18 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G6">
         <v>141</v>
       </c>
       <c r="H6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B7" s="1">
         <v>45812</v>
@@ -1725,13 +1761,117 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G7">
         <v>1527</v>
       </c>
       <c r="H7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45814</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="D8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8">
+        <v>3173</v>
+      </c>
+      <c r="H8" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45814</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9">
+        <v>3600</v>
+      </c>
+      <c r="H9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45814</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.54513888888888884</v>
+      </c>
+      <c r="D10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10">
+        <v>3566</v>
+      </c>
+      <c r="H10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45814</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11">
+        <v>3600</v>
+      </c>
+      <c r="H11" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/detection field test data.xlsx
+++ b/detection field test data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3a69dc1a79d235a/2 PhD/GIT/detection-dog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="405" documentId="13_ncr:1_{84068825-A51A-45D9-9695-B1875DA6DCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC207623-97CE-4449-B273-D755472DF265}"/>
+  <xr:revisionPtr revIDLastSave="435" documentId="13_ncr:1_{84068825-A51A-45D9-9695-B1875DA6DCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21F707BA-69E1-468C-9C17-BD31648F703A}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2865" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{78F3DDC6-AADC-4A30-A654-FCA5E2B59584}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="100">
   <si>
     <t>Date</t>
   </si>
@@ -310,6 +310,33 @@
   </si>
   <si>
     <t>Transects (short length) and random walk. Actually found GPS but after the 1 hour maximum time had elapsed.</t>
+  </si>
+  <si>
+    <t>Britt</t>
+  </si>
+  <si>
+    <t>32 minutes 30 seconds</t>
+  </si>
+  <si>
+    <t>Transects (short length). A few minutes of rain.</t>
+  </si>
+  <si>
+    <t>Transects (short length). Not found and funnily I couldn't refind either, had to get Koda to retrieve the placement.</t>
+  </si>
+  <si>
+    <t>Sean</t>
+  </si>
+  <si>
+    <t>Overcast, cold.</t>
+  </si>
+  <si>
+    <t>27 minutes 1 second</t>
+  </si>
+  <si>
+    <t>Random walk then transects. Found on first intensive transect.</t>
+  </si>
+  <si>
+    <t>Random walk then transects. Was very cold.</t>
   </si>
 </sst>
 </file>
@@ -1571,10 +1598,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A64F118-EA99-4C9D-A343-CF56CB35EAE1}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1874,6 +1901,111 @@
         <v>90</v>
       </c>
     </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45815</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="D12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12">
+        <f>32*60+30</f>
+        <v>1950</v>
+      </c>
+      <c r="H12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45815</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13">
+        <v>3600</v>
+      </c>
+      <c r="H13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="1">
+        <v>45815</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14">
+        <v>1621</v>
+      </c>
+      <c r="H14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="1">
+        <v>45815</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15">
+        <v>3600</v>
+      </c>
+      <c r="H15" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/detection field test data.xlsx
+++ b/detection field test data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3a69dc1a79d235a/2 PhD/GIT/detection-dog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="435" documentId="13_ncr:1_{84068825-A51A-45D9-9695-B1875DA6DCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21F707BA-69E1-468C-9C17-BD31648F703A}"/>
+  <xr:revisionPtr revIDLastSave="462" documentId="13_ncr:1_{84068825-A51A-45D9-9695-B1875DA6DCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E36FD408-14DC-4CAE-A3BF-9D208F6FD1EA}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2865" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{78F3DDC6-AADC-4A30-A654-FCA5E2B59584}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{78F3DDC6-AADC-4A30-A654-FCA5E2B59584}"/>
   </bookViews>
   <sheets>
     <sheet name="dog" sheetId="1" r:id="rId1"/>
@@ -294,9 +294,6 @@
     <t>Transects (short length) and perimeter search.</t>
   </si>
   <si>
-    <t>Worked downhill. Did not get onto odour. Search got derailed by Koda picking up odour of a frisbee next to the search area. Search abandoned because ignoring a high value item is not part of the controlled evaluation protocol.</t>
-  </si>
-  <si>
     <t>Rachael</t>
   </si>
   <si>
@@ -337,6 +334,9 @@
   </si>
   <si>
     <t>Random walk then transects. Was very cold.</t>
+  </si>
+  <si>
+    <t>ABANDONED.Worked downhill. Did not get onto odour. Search got derailed by Koda picking up odour of a frisbee next to the search area. Search abandoned because ignoring a high value item is not part of the controlled evaluation protocol.</t>
   </si>
 </sst>
 </file>
@@ -736,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35957C9B-8F96-413D-BC7D-E3550DA63DD4}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1094,7 +1094,7 @@
         <v>16</v>
       </c>
       <c r="L9" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -1600,7 +1600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A64F118-EA99-4C9D-A343-CF56CB35EAE1}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -1851,7 +1851,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" s="1">
         <v>45814</v>
@@ -1860,24 +1860,24 @@
         <v>0.54513888888888884</v>
       </c>
       <c r="D10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
         <v>87</v>
-      </c>
-      <c r="E10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>88</v>
       </c>
       <c r="G10">
         <v>3566</v>
       </c>
       <c r="H10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B11" s="1">
         <v>45814</v>
@@ -1886,7 +1886,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -1898,12 +1898,12 @@
         <v>3600</v>
       </c>
       <c r="H11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B12" s="1">
         <v>45815</v>
@@ -1912,25 +1912,25 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G12">
         <f>32*60+30</f>
         <v>1950</v>
       </c>
       <c r="H12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B13" s="1">
         <v>45815</v>
@@ -1939,7 +1939,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -1951,12 +1951,12 @@
         <v>3600</v>
       </c>
       <c r="H13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B14" s="1">
         <v>45815</v>
@@ -1965,24 +1965,24 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
         <v>96</v>
-      </c>
-      <c r="E14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>97</v>
       </c>
       <c r="G14">
         <v>1621</v>
       </c>
       <c r="H14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B15" s="1">
         <v>45815</v>
@@ -1991,7 +1991,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -2003,7 +2003,7 @@
         <v>3600</v>
       </c>
       <c r="H15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/detection field test data.xlsx
+++ b/detection field test data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3a69dc1a79d235a/2 PhD/GIT/detection-dog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="462" documentId="13_ncr:1_{84068825-A51A-45D9-9695-B1875DA6DCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E36FD408-14DC-4CAE-A3BF-9D208F6FD1EA}"/>
+  <xr:revisionPtr revIDLastSave="464" documentId="13_ncr:1_{84068825-A51A-45D9-9695-B1875DA6DCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58F49DFD-02EC-44F2-98D4-A7DCDBB6155C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{78F3DDC6-AADC-4A30-A654-FCA5E2B59584}"/>
+    <workbookView xWindow="28680" yWindow="-2865" windowWidth="29040" windowHeight="15720" xr2:uid="{78F3DDC6-AADC-4A30-A654-FCA5E2B59584}"/>
   </bookViews>
   <sheets>
     <sheet name="dog" sheetId="1" r:id="rId1"/>
@@ -736,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35957C9B-8F96-413D-BC7D-E3550DA63DD4}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
